--- a/biology/Zoologie/Ischyropsalis_kollari/Ischyropsalis_kollari.xlsx
+++ b/biology/Zoologie/Ischyropsalis_kollari/Ischyropsalis_kollari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyropsalis kollari est une espèce d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Autriche, en Slovénie et en Italie dans les Alpes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Autriche, en Slovénie et en Italie dans les Alpes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4,3 à 6,8 mm et les femelles de 6,4 à 7,7 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4,3 à 6,8 mm et les femelles de 6,4 à 7,7 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par C. L. Koch en 1839.
-Ischyropsalis bosnica[2], Ischyropsalis triglavensis[3], Ischyropsalis danubia[4], Ischyropsalis nivalis[4], Ischyropsalis reimoseri[4], Ischyropsalis scutata[4], Ischyropsalis segregata[4], Ischyropsalis spinichelis[4], Ischyropsalis strasseri[4], Ischyropsalis styriaca[4], Ischyropsalis tirolensis[4] et Ischyropsalis troglodytes[4] ont été placées en synonymie par Martens en 1969[5].
+Ischyropsalis bosnica, Ischyropsalis triglavensis, Ischyropsalis danubia, Ischyropsalis nivalis, Ischyropsalis reimoseri, Ischyropsalis scutata, Ischyropsalis segregata, Ischyropsalis spinichelis, Ischyropsalis strasseri, Ischyropsalis styriaca, Ischyropsalis tirolensis et Ischyropsalis troglodytes ont été placées en synonymie par Martens en 1969.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vincenz Kollar[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vincenz Kollar.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>C. L. Koch, 1839 : Übersicht des Arachnidensystems. Nürnberg, Heft 2, p. 1-38 (texte intégral).</t>
         </is>
